--- a/Testes_realizados.xlsx
+++ b/Testes_realizados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Documents\GitHub\Redes2-GrauB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD5D15-A6B5-4750-B677-4B40A1ABBCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E204B55-D162-455F-9501-32B9E10FFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AFF12A91-360B-43E1-A18F-611EEB07FBBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>total_colisoes</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>colisoes_t4</t>
+  </si>
+  <si>
+    <t>numero_total_tentativas_por_execucao</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31DD1B-6972-4100-A5DE-68674602EFDD}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,10 +474,11 @@
     <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -503,19 +507,22 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>62.66</v>
       </c>
@@ -544,19 +551,23 @@
         <v>33</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <f>SUM(F2:I2)</f>
+        <v>110</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>74.97</v>
       </c>
@@ -585,19 +596,23 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <f t="shared" ref="J3:J16" si="0">SUM(F3:I3)</f>
+        <v>88</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25.32</v>
       </c>
@@ -626,7 +641,8 @@
         <v>36</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -637,8 +653,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>26.04</v>
       </c>
@@ -667,19 +686,23 @@
         <v>29</v>
       </c>
       <c r="J5">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>51.3</v>
       </c>
@@ -708,19 +731,23 @@
         <v>14</v>
       </c>
       <c r="J6">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>44.64</v>
       </c>
@@ -749,19 +776,23 @@
         <v>38</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>28.59</v>
       </c>
@@ -790,19 +821,23 @@
         <v>35</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>129</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41.29</v>
       </c>
@@ -831,19 +866,23 @@
         <v>22</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>104</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23.85</v>
       </c>
@@ -872,7 +911,8 @@
         <v>38</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -883,8 +923,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>26.64</v>
       </c>
@@ -913,7 +956,8 @@
         <v>41</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -924,8 +968,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>27.84</v>
       </c>
@@ -954,19 +1001,23 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28</v>
       </c>
@@ -995,19 +1046,23 @@
         <v>21</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>79</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>34.9</v>
       </c>
@@ -1036,19 +1091,23 @@
         <v>28</v>
       </c>
       <c r="J14">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>23.62</v>
       </c>
@@ -1077,19 +1136,23 @@
         <v>30</v>
       </c>
       <c r="J15">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>103.04</v>
       </c>
@@ -1118,15 +1181,19 @@
         <v>27</v>
       </c>
       <c r="J16">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
     </row>

--- a/Testes_realizados.xlsx
+++ b/Testes_realizados.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicer\Documents\GitHub\Redes2-GrauB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4221E95E-32F3-4E7F-AB12-F02F03321DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA46FB-B8AD-4048-A055-DB9DB9F13730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AFF12A91-360B-43E1-A18F-611EEB07FBBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="valor_espera_maior" sheetId="1" r:id="rId1"/>
+    <sheet name="valor_espera_menor" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,12 +98,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31DD1B-6972-4100-A5DE-68674602EFDD}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,19 +682,19 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>115.64</v>
+        <v>69.28</v>
       </c>
       <c r="C12">
-        <v>37.4</v>
+        <v>39.39</v>
       </c>
       <c r="D12" s="3">
-        <v>78.23</v>
+        <v>29.89</v>
       </c>
       <c r="E12" s="2">
-        <v>0.32340000000000002</v>
+        <v>0.56850000000000001</v>
       </c>
       <c r="F12" s="3">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -703,19 +702,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>138.86000000000001</v>
+        <v>124.18</v>
       </c>
       <c r="C13">
-        <v>41.65</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="D13" s="3">
-        <v>97.21</v>
+        <v>85.31</v>
       </c>
       <c r="E13" s="2">
-        <v>0.2999</v>
+        <v>0.313</v>
       </c>
       <c r="F13" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>109.6</v>
+        <v>86.36</v>
       </c>
       <c r="C14">
-        <v>37.619999999999997</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D14" s="3">
-        <v>71.98</v>
+        <v>47.15</v>
       </c>
       <c r="E14" s="2">
-        <v>0.34320000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,19 +742,19 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>110.79</v>
+        <v>107.3</v>
       </c>
       <c r="C15">
-        <v>39.64</v>
+        <v>38.14</v>
       </c>
       <c r="D15" s="3">
-        <v>71.150000000000006</v>
+        <v>69.16</v>
       </c>
       <c r="E15" s="2">
-        <v>0.35780000000000001</v>
+        <v>0.35549999999999998</v>
       </c>
       <c r="F15" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,19 +762,19 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>99.67</v>
+        <v>117.95</v>
       </c>
       <c r="C16">
-        <v>37.47</v>
+        <v>41.65</v>
       </c>
       <c r="D16" s="3">
-        <v>62.19</v>
+        <v>76.3</v>
       </c>
       <c r="E16" s="2">
-        <v>0.376</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="F16" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,19 +782,19 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>119.48</v>
+        <v>56.44</v>
       </c>
       <c r="C17">
-        <v>37.04</v>
-      </c>
-      <c r="D17" s="4">
-        <v>82.44</v>
+        <v>40.94</v>
+      </c>
+      <c r="D17">
+        <v>15.5</v>
       </c>
       <c r="E17" s="2">
-        <v>0.31</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="F17" s="3">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,19 +802,19 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>102.58</v>
+        <v>108.3</v>
       </c>
       <c r="C18">
-        <v>39.909999999999997</v>
-      </c>
-      <c r="D18" s="4">
-        <v>62.68</v>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D18">
+        <v>70.59</v>
       </c>
       <c r="E18" s="2">
-        <v>0.38900000000000001</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="F18" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,16 +822,16 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>114.5</v>
+        <v>172.6</v>
       </c>
       <c r="C19">
-        <v>39.74</v>
-      </c>
-      <c r="D19" s="4">
-        <v>74.75</v>
+        <v>37.92</v>
+      </c>
+      <c r="D19">
+        <v>134.68</v>
       </c>
       <c r="E19" s="2">
-        <v>0.34710000000000002</v>
+        <v>0.21970000000000001</v>
       </c>
       <c r="F19" s="3">
         <v>9</v>
@@ -843,19 +842,19 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>75.319999999999993</v>
+        <v>118.64</v>
       </c>
       <c r="C20">
-        <v>39.75</v>
-      </c>
-      <c r="D20" s="4">
-        <v>35.57</v>
+        <v>39.33</v>
+      </c>
+      <c r="D20">
+        <v>79.31</v>
       </c>
       <c r="E20" s="2">
-        <v>0.52769999999999995</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="F20" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,19 +862,19 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>127.08</v>
+        <v>120.54</v>
       </c>
       <c r="C21">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="D21" s="4">
-        <v>87.85</v>
+        <v>38.83</v>
+      </c>
+      <c r="D21">
+        <v>81.709999999999994</v>
       </c>
       <c r="E21" s="2">
-        <v>0.30869999999999997</v>
+        <v>0.3221</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -888,7 +887,7 @@
       <c r="C22">
         <v>60.96</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>51.34</v>
       </c>
       <c r="E22" s="2">
@@ -908,7 +907,7 @@
       <c r="C23">
         <v>61.52</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>78.78</v>
       </c>
       <c r="E23" s="2">
@@ -928,7 +927,7 @@
       <c r="C24">
         <v>63.58</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>68.09</v>
       </c>
       <c r="E24" s="2">
@@ -948,7 +947,7 @@
       <c r="C25">
         <v>56.7</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>71.16</v>
       </c>
       <c r="E25" s="2">
@@ -968,7 +967,7 @@
       <c r="C26">
         <v>57.24</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <v>71.33</v>
       </c>
       <c r="E26" s="2">
@@ -988,7 +987,7 @@
       <c r="C27">
         <v>56.06</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27">
         <v>61.64</v>
       </c>
       <c r="E27" s="2">
@@ -1008,7 +1007,7 @@
       <c r="C28">
         <v>59.16</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <v>58.21</v>
       </c>
       <c r="E28" s="2">
@@ -1028,7 +1027,7 @@
       <c r="C29">
         <v>60.34</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
         <v>55.89</v>
       </c>
       <c r="E29" s="2">
@@ -1048,7 +1047,7 @@
       <c r="C30">
         <v>61.47</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>67.47</v>
       </c>
       <c r="E30" s="2">
@@ -1068,7 +1067,7 @@
       <c r="C31">
         <v>61.9</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31">
         <v>84.02</v>
       </c>
       <c r="E31" s="2">
@@ -1088,7 +1087,7 @@
       <c r="C32">
         <v>98.6</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32">
         <v>115.62</v>
       </c>
       <c r="E32" s="2">
@@ -1096,6 +1095,46 @@
       </c>
       <c r="F32" s="3">
         <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>462.1</v>
+      </c>
+      <c r="C33">
+        <v>253.02</v>
+      </c>
+      <c r="D33">
+        <v>209.08</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="F33" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>1047.68</v>
+      </c>
+      <c r="C34">
+        <v>477.52</v>
+      </c>
+      <c r="D34">
+        <v>570.16</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1483</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1147,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,43 +1244,141 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="B5">
+        <v>109.28</v>
+      </c>
+      <c r="C5">
+        <v>20.46</v>
+      </c>
+      <c r="D5">
+        <v>88.82</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="B6">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="C6">
+        <v>17.55</v>
+      </c>
+      <c r="D6">
+        <v>61.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="B7">
+        <v>97.18</v>
+      </c>
+      <c r="C7">
+        <v>20.72</v>
+      </c>
+      <c r="D7">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.2132</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="B8">
+        <v>93.73</v>
+      </c>
+      <c r="C8">
+        <v>19.54</v>
+      </c>
+      <c r="D8">
+        <v>74.19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="B9">
+        <v>99.49</v>
+      </c>
+      <c r="C9">
+        <v>20.98</v>
+      </c>
+      <c r="D9">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.2109</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="B10">
+        <v>102.97</v>
+      </c>
+      <c r="C10">
+        <v>17.96</v>
+      </c>
+      <c r="D10">
+        <v>85.01</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.1744</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="B11">
+        <v>105.66</v>
+      </c>
+      <c r="C11">
+        <v>19.12</v>
+      </c>
+      <c r="D11">
+        <v>86.54</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1307,57 +1444,141 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="B15">
+        <v>69.47</v>
+      </c>
+      <c r="C15">
+        <v>39.9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>29.57</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="B16">
+        <v>95.41</v>
+      </c>
+      <c r="C16">
+        <v>35.94</v>
+      </c>
+      <c r="D16" s="3">
+        <v>59.46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="B17">
+        <v>96.12</v>
+      </c>
+      <c r="C17">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3">
+        <v>55.11</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="B18">
+        <v>111.41</v>
+      </c>
+      <c r="C18">
+        <v>38.65</v>
+      </c>
+      <c r="D18" s="3">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="B19">
+        <v>107.76</v>
+      </c>
+      <c r="C19">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>67.88</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="B20">
+        <v>158.72</v>
+      </c>
+      <c r="C20">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="D20" s="3">
+        <v>120.57</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.2404</v>
+      </c>
+      <c r="F20" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="B21">
+        <v>102.57</v>
+      </c>
+      <c r="C21">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>61.98</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.3957</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1369,7 +1590,7 @@
       <c r="C22">
         <v>58.43</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>117.99</v>
       </c>
       <c r="E22" s="2">
@@ -1389,7 +1610,7 @@
       <c r="C23">
         <v>58.93</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
         <v>143.51</v>
       </c>
       <c r="E23" s="2">
@@ -1409,7 +1630,7 @@
       <c r="C24">
         <v>56.58</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>115.51</v>
       </c>
       <c r="E24" s="2">
@@ -1423,57 +1644,141 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="B25">
+        <v>157.37</v>
+      </c>
+      <c r="C25">
+        <v>61.42</v>
+      </c>
+      <c r="D25">
+        <v>94.95</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="B26">
+        <v>137.62</v>
+      </c>
+      <c r="C26">
+        <v>59.91</v>
+      </c>
+      <c r="D26">
+        <v>77.709999999999994</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="F26" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="B27">
+        <v>190.43</v>
+      </c>
+      <c r="C27">
+        <v>52.52</v>
+      </c>
+      <c r="D27">
+        <v>137.91</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F27" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="B28">
+        <v>192.27</v>
+      </c>
+      <c r="C28">
+        <v>60.84</v>
+      </c>
+      <c r="D28">
+        <v>131.43</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="B29">
+        <v>164.58</v>
+      </c>
+      <c r="C29">
+        <v>61.22</v>
+      </c>
+      <c r="D29">
+        <v>103.36</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="F29" s="3">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="B30">
+        <v>110.37</v>
+      </c>
+      <c r="C30">
+        <v>61.74</v>
+      </c>
+      <c r="D30">
+        <v>48.62</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="B31">
+        <v>181.71</v>
+      </c>
+      <c r="C31">
+        <v>60.15</v>
+      </c>
+      <c r="D31">
+        <v>121.55</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F31" s="3">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
